--- a/ExcelProcesser.Tests/resources/test.xlsx
+++ b/ExcelProcesser.Tests/resources/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\ExcelProcesser\ExcelProcesser.Tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\ExcelProcesser\ExcelProcesser.Tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>40  41  42  43  44  45</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,12 @@
   </si>
   <si>
     <t>b7</t>
+  </si>
+  <si>
+    <t>Until</t>
+  </si>
+  <si>
+    <t>Begin</t>
   </si>
 </sst>
 </file>
@@ -1097,7 +1103,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -1111,7 +1117,7 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1126,8 +1132,14 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="8"/>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1141,7 +1153,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1157,7 +1169,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D5" s="10"/>
       <c r="E5" s="12"/>
       <c r="F5" s="4" t="s">
@@ -1168,17 +1180,22 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D11" s="9" t="s">
         <v>7</v>
       </c>
@@ -1191,7 +1208,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D12" s="10"/>
       <c r="E12" s="12"/>
       <c r="F12" s="6" t="s">
@@ -1202,7 +1219,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +1232,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
       <c r="E14" s="12"/>
       <c r="F14" s="4" t="s">

--- a/ExcelProcesser.Tests/resources/test.xlsx
+++ b/ExcelProcesser.Tests/resources/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t>40  41  42  43  44  45</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Begin</t>
+  </si>
+  <si>
+    <t>Hello</t>
   </si>
 </sst>
 </file>
@@ -1106,7 +1109,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1135,6 +1138,9 @@
       <c r="J2" t="s">
         <v>20</v>
       </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
       <c r="N2" t="s">
         <v>19</v>
       </c>

--- a/ExcelProcesser.Tests/resources/test.xlsx
+++ b/ExcelProcesser.Tests/resources/test.xlsx
@@ -1109,7 +1109,7 @@
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>

--- a/ExcelProcesser.Tests/resources/test.xlsx
+++ b/ExcelProcesser.Tests/resources/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21107"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\ExcelProcesser\ExcelProcesser.Tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA8C7A3-BA52-4DB8-9A5F-2DEA47A6F4A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536" tabRatio="652"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
@@ -155,7 +156,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
@@ -374,7 +375,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +435,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -726,7 +733,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -756,49 +763,52 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="??" xfId="1"/>
-    <cellStyle name="?? [0]_SGV" xfId="2"/>
-    <cellStyle name="???[0]_PRESHPY3" xfId="3"/>
-    <cellStyle name="???_PRESHPY3" xfId="4"/>
-    <cellStyle name="??[0]_PRESHPY3" xfId="5"/>
-    <cellStyle name="??_594,2" xfId="6"/>
-    <cellStyle name="?@!Ae_PRESHPY3" xfId="7"/>
-    <cellStyle name="?d?A|i[0]_PRSP121" xfId="8"/>
-    <cellStyle name="?d?A|i_PRSP121" xfId="9"/>
-    <cellStyle name="3f1o[0]_PRESHPY3" xfId="10"/>
-    <cellStyle name="3f1o_PRESHPY3" xfId="11"/>
+    <cellStyle name="??" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="?? [0]_SGV" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="???[0]_PRESHPY3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="???_PRESHPY3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="??[0]_PRESHPY3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="??_594,2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="?@!Ae_PRESHPY3" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="?d?A|i[0]_PRSP121" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="?d?A|i_PRSP121" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="3f1o[0]_PRESHPY3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="3f1o_PRESHPY3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="32" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="33" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="34" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Grey" xfId="12"/>
+    <cellStyle name="Grey" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Heading 1" xfId="21" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="22" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="23" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="24" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="39" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input [yellow]" xfId="13"/>
+    <cellStyle name="Input [yellow]" xfId="13" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="14"/>
+    <cellStyle name="Normal - Style1" xfId="14" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Note" xfId="40" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent [2]" xfId="15"/>
+    <cellStyle name="Percent [2]" xfId="15" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Title" xfId="20" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="31" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tusental (0)_pldt" xfId="16"/>
-    <cellStyle name="Tusental_pldt" xfId="17"/>
-    <cellStyle name="Valuta (0)_pldt" xfId="18"/>
-    <cellStyle name="Valuta_pldt" xfId="19"/>
+    <cellStyle name="Tusental (0)_pldt" xfId="16" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Tusental_pldt" xfId="17" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Valuta (0)_pldt" xfId="18" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Valuta_pldt" xfId="19" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Warning Text" xfId="35" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="26"/>
-    <cellStyle name="常规 4" xfId="27"/>
-    <cellStyle name="常规 4 11" xfId="28"/>
-    <cellStyle name="常规 6" xfId="29"/>
+    <cellStyle name="常规 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 4" xfId="27" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 4 11" xfId="28" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 6" xfId="29" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,6 +904,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -929,6 +956,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1104,12 +1148,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1124,7 +1168,7 @@
       <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="11" t="s">

--- a/ExcelProcesser.Tests/resources/test.xlsx
+++ b/ExcelProcesser.Tests/resources/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\ExcelProcesser\ExcelProcesser.Tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA8C7A3-BA52-4DB8-9A5F-2DEA47A6F4A5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C454989F-BEF9-4CA4-9092-91933EC8A930}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>40  41  42  43  44  45</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,6 +152,9 @@
   <si>
     <t>Hello</t>
   </si>
+  <si>
+    <t>Title</t>
+  </si>
 </sst>
 </file>
 
@@ -167,7 +170,7 @@
     <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -373,6 +376,12 @@
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="13">
@@ -733,7 +742,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -765,6 +774,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="41">
@@ -1150,10 +1162,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A2:N22"/>
+  <dimension ref="A1:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1164,6 +1176,12 @@
     <col min="7" max="7" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="14"/>
+    </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
@@ -1322,6 +1340,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="66" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/ExcelProcesser.Tests/resources/test.xlsx
+++ b/ExcelProcesser.Tests/resources/test.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VsCode\Github\ExcelProcesser\ExcelProcesser.Tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD39876-8780-46B5-AA50-631ED8D7D15D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536" tabRatio="652"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="8508" windowHeight="4536" tabRatio="652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -155,16 +163,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
-    <numFmt numFmtId="167" formatCode="&quot;NT$&quot;#,##0;[Red]\-&quot;NT$&quot;#,##0"/>
-    <numFmt numFmtId="168" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="0.00_)"/>
-    <numFmt numFmtId="170" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="&quot;NT$&quot;#,##0;[Red]\-&quot;NT$&quot;#,##0"/>
+    <numFmt numFmtId="180" formatCode="&quot;NT$&quot;#,##0.00;[Red]\-&quot;NT$&quot;#,##0.00"/>
+    <numFmt numFmtId="181" formatCode="0.00_)"/>
+    <numFmt numFmtId="182" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="183" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="30" x14ac:knownFonts="1">
     <font>
@@ -644,24 +652,24 @@
   <cellStyleXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="38" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="38" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="10" fontId="9" fillId="6" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="169" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="181" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -758,47 +766,47 @@
     </xf>
   </cellXfs>
   <cellStyles count="41">
-    <cellStyle name="??" xfId="1"/>
-    <cellStyle name="?? [0]_SGV" xfId="2"/>
-    <cellStyle name="???[0]_PRESHPY3" xfId="3"/>
-    <cellStyle name="???_PRESHPY3" xfId="4"/>
-    <cellStyle name="??[0]_PRESHPY3" xfId="5"/>
-    <cellStyle name="??_594,2" xfId="6"/>
-    <cellStyle name="?@!Ae_PRESHPY3" xfId="7"/>
-    <cellStyle name="?d?A|i[0]_PRSP121" xfId="8"/>
-    <cellStyle name="?d?A|i_PRSP121" xfId="9"/>
-    <cellStyle name="3f1o[0]_PRESHPY3" xfId="10"/>
-    <cellStyle name="3f1o_PRESHPY3" xfId="11"/>
+    <cellStyle name="??" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="?? [0]_SGV" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="???[0]_PRESHPY3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="???_PRESHPY3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="??[0]_PRESHPY3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="??_594,2" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="?@!Ae_PRESHPY3" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="?d?A|i[0]_PRSP121" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="?d?A|i_PRSP121" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="3f1o[0]_PRESHPY3" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="3f1o_PRESHPY3" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="32" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="33" builtinId="23" customBuiltin="1"/>
     <cellStyle name="Explanatory Text" xfId="34" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Good" xfId="30" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Grey" xfId="12"/>
+    <cellStyle name="Grey" xfId="12" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
     <cellStyle name="Heading 1" xfId="21" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="22" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="23" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="24" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Input" xfId="39" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Input [yellow]" xfId="13"/>
+    <cellStyle name="Input [yellow]" xfId="13" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
     <cellStyle name="Linked Cell" xfId="36" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="37" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal - Style1" xfId="14"/>
+    <cellStyle name="Normal - Style1" xfId="14" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
     <cellStyle name="Note" xfId="40" builtinId="10" customBuiltin="1"/>
     <cellStyle name="Output" xfId="38" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent [2]" xfId="15"/>
+    <cellStyle name="Percent [2]" xfId="15" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Title" xfId="20" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="31" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Tusental (0)_pldt" xfId="16"/>
-    <cellStyle name="Tusental_pldt" xfId="17"/>
-    <cellStyle name="Valuta (0)_pldt" xfId="18"/>
-    <cellStyle name="Valuta_pldt" xfId="19"/>
+    <cellStyle name="Tusental (0)_pldt" xfId="16" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Tusental_pldt" xfId="17" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Valuta (0)_pldt" xfId="18" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Valuta_pldt" xfId="19" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
     <cellStyle name="Warning Text" xfId="35" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="常规 2" xfId="26"/>
-    <cellStyle name="常规 4" xfId="27"/>
-    <cellStyle name="常规 4 11" xfId="28"/>
-    <cellStyle name="常规 6" xfId="29"/>
+    <cellStyle name="常规 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="常规 4" xfId="27" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="常规 4 11" xfId="28" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="常规 6" xfId="29" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -894,6 +902,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -929,6 +954,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1104,12 +1146,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A2:N22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
@@ -1224,6 +1266,9 @@
       <c r="H12" s="1">
         <v>2000</v>
       </c>
+      <c r="J12">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D13" s="9" t="s">
@@ -1237,6 +1282,9 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="1"/>
+      <c r="J13">
+        <v>100</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D14" s="10"/>
@@ -1247,6 +1295,12 @@
       <c r="G14" s="5"/>
       <c r="H14" s="1">
         <v>1000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <f>SUM(J12:J13)</f>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
